--- a/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
+++ b/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
   <si>
     <t>type</t>
   </si>
@@ -406,6 +410,9 @@
   </si>
   <si>
     <t>Composite sample -- Subsoil (20-50)</t>
+  </si>
+  <si>
+    <t>composite_subsoil_texture</t>
   </si>
   <si>
     <t>list name</t>
@@ -522,45 +529,86 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+  </numFmts>
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8.0"/>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,23 +616,24 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF3C3C3C"/>
       </left>
@@ -597,8 +646,9 @@
       <bottom style="thin">
         <color rgb="FF3C3C3C"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -611,96 +661,197 @@
       <bottom style="medium">
         <color rgb="FFC0C0C0"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="15">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF3C3C3C"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.13"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
-    <col customWidth="1" min="3" max="3" width="46.75"/>
-    <col customWidth="1" min="4" max="4" width="18.38"/>
-    <col customWidth="1" min="5" max="5" width="27.63"/>
-    <col customWidth="1" min="6" max="6" width="15.25"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="10.0"/>
-    <col customWidth="1" min="9" max="9" width="7.38"/>
-    <col customWidth="1" min="10" max="10" width="21.63"/>
-    <col customWidth="1" min="11" max="22" width="8.0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.37755102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6275510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="11" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="15.1275510204082"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1">
+    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +899,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" ht="11.25" customHeight="1">
+    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -776,7 +927,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" ht="11.25" customHeight="1">
+    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,7 +955,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" ht="11.25" customHeight="1">
+    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -832,7 +983,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" ht="12.0" customHeight="1">
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -860,7 +1011,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" ht="11.25" customHeight="1">
+    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -892,27 +1043,27 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" ht="11.25" customHeight="1">
+    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -925,29 +1076,29 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" ht="11.25" customHeight="1">
+    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -960,20 +1111,20 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" ht="11.25" customHeight="1">
+    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
@@ -989,7 +1140,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" ht="11.25" customHeight="1">
+    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1170,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" ht="11.25" customHeight="1">
+    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1053,14 +1204,14 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1087,14 +1238,14 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" ht="11.25" customHeight="1">
-      <c r="A13" s="9" t="s">
+    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="1"/>
@@ -1102,7 +1253,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1"/>
@@ -1119,7 +1270,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" ht="11.25" customHeight="1">
+    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1145,7 +1296,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" ht="11.25" customHeight="1">
+    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1328,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1360,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" ht="11.25" customHeight="1">
+    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1235,7 +1386,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" ht="12.0" customHeight="1">
+    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1416,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" ht="11.25" customHeight="1">
+    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1444,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" ht="12.0" customHeight="1">
+    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1329,7 +1480,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" ht="12.0" customHeight="1">
+    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1516,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1548,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" ht="12.0" customHeight="1">
+    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1431,7 +1582,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" ht="12.0" customHeight="1">
+    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1465,7 +1616,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" ht="11.25" customHeight="1">
+    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1491,7 +1642,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1515,7 +1666,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" ht="12.0" customHeight="1">
+    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1698,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" ht="11.25" customHeight="1">
+    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1575,7 +1726,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" ht="12.0" customHeight="1">
+    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1611,7 +1762,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" ht="12.0" customHeight="1">
+    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1647,7 +1798,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" ht="12.0" customHeight="1">
+    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1679,7 +1830,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" ht="12.0" customHeight="1">
+    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1864,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" ht="12.0" customHeight="1">
+    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +1898,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" ht="11.25" customHeight="1">
+    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1924,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" ht="11.25" customHeight="1">
+    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1797,7 +1948,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" ht="12.0" customHeight="1">
+    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1980,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" ht="11.25" customHeight="1">
+    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1857,7 +2008,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" ht="12.0" customHeight="1">
+    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1893,7 +2044,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" ht="12.0" customHeight="1">
+    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +2080,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" ht="12.0" customHeight="1">
+    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1961,7 +2112,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" ht="12.0" customHeight="1">
+    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1995,7 +2146,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" ht="12.0" customHeight="1">
+    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2029,7 +2180,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" ht="12.0" customHeight="1">
+    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -2061,7 +2212,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" ht="11.25" customHeight="1">
+    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2238,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" ht="11.25" customHeight="1">
+    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2111,7 +2262,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" ht="12.0" customHeight="1">
+    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2294,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" ht="11.25" customHeight="1">
+    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2171,7 +2322,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" ht="12.0" customHeight="1">
+    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -2193,7 +2344,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M48" s="2"/>
@@ -2207,7 +2358,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" ht="12.0" customHeight="1">
+    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2243,7 +2394,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" ht="12.0" customHeight="1">
+    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -2275,7 +2426,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" ht="12.0" customHeight="1">
+    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2460,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" ht="12.0" customHeight="1">
+    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2494,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" ht="12.0" customHeight="1">
+    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -2375,7 +2526,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" ht="11.25" customHeight="1">
+    <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2401,7 +2552,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" ht="11.25" customHeight="1">
+    <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2425,7 +2576,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" ht="12.0" customHeight="1">
+    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2606,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" ht="11.25" customHeight="1">
+    <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
@@ -2483,7 +2634,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" ht="12.0" customHeight="1">
+    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2670,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" ht="11.25" customHeight="1">
+    <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2696,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" ht="11.25" customHeight="1">
+    <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2569,7 +2720,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" ht="12.0" customHeight="1">
+    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2752,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" ht="11.25" customHeight="1">
+    <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -2629,7 +2780,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" ht="12.0" customHeight="1">
+    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2816,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" ht="11.25" customHeight="1">
+    <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2842,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" ht="11.25" customHeight="1">
+    <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2715,7 +2866,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" ht="12.0" customHeight="1">
+    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2745,7 +2896,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" ht="11.25" customHeight="1">
+    <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>52</v>
       </c>
@@ -2773,7 +2924,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" ht="12.0" customHeight="1">
+    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2960,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" ht="11.25" customHeight="1">
+    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -2835,7 +2986,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" ht="11.25" customHeight="1">
+    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2859,7 +3010,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" ht="12.0" customHeight="1">
+    <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2891,7 +3042,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" ht="11.25" customHeight="1">
+    <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>52</v>
       </c>
@@ -2919,7 +3070,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" ht="12.0" customHeight="1">
+    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
@@ -2955,7 +3106,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" ht="11.25" customHeight="1">
+    <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -2981,7 +3132,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" ht="11.25" customHeight="1">
+    <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3005,7 +3156,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" ht="12.0" customHeight="1">
+    <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3186,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" ht="11.25" customHeight="1">
+    <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -3063,7 +3214,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" ht="12.0" customHeight="1">
+    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3250,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" ht="11.25" customHeight="1">
+    <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>46</v>
       </c>
@@ -3125,7 +3276,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" ht="11.25" customHeight="1">
+    <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3149,7 +3300,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" ht="12.0" customHeight="1">
+    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3181,7 +3332,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" ht="12.0" customHeight="1">
+    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -3210,7 +3361,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" ht="12.0" customHeight="1">
+    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>54</v>
       </c>
@@ -3244,7 +3395,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" ht="11.25" customHeight="1">
+    <row r="84" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>46</v>
       </c>
@@ -3270,9 +3421,9 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" ht="12.0" customHeight="1">
+    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3294,11 +3445,11 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" ht="12.0" customHeight="1">
+    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C86" s="1"/>
@@ -3324,12 +3475,12 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" ht="12.0" customHeight="1">
+    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D87" s="1"/>
@@ -3354,11 +3505,11 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" ht="12.0" customHeight="1">
+    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3386,7 +3537,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" ht="12.0" customHeight="1">
+    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -3412,7 +3563,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" ht="12.0" customHeight="1">
+    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3436,11 +3587,11 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" ht="12.0" customHeight="1">
+    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C91" s="1"/>
@@ -3466,12 +3617,12 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" ht="12.0" customHeight="1">
+    <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D92" s="1"/>
@@ -3496,12 +3647,12 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" ht="12.0" customHeight="1">
+    <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>128</v>
+      <c r="B93" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>93</v>
@@ -3528,7 +3679,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" ht="12.0" customHeight="1">
+    <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
@@ -3554,60 +3705,48 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" ht="12.0" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="27.63"/>
-    <col customWidth="1" min="3" max="3" width="13.5"/>
-    <col customWidth="1" min="4" max="14" width="7.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1275510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="15.1275510204082"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>164</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3617,21 +3756,12 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1.0</v>
-      </c>
+    </row>
+    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3641,12 +3771,17 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3657,12 +3792,17 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3673,12 +3813,17 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3689,11 +3834,10 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
+    </row>
+    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3705,9 +3849,8 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
+    </row>
+    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3721,12 +3864,17 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3737,12 +3885,17 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3753,12 +3906,17 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3769,12 +3927,17 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3785,12 +3948,17 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3801,12 +3969,17 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3817,12 +3990,17 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3833,12 +4011,17 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3849,12 +4032,17 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3865,12 +4053,17 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3881,12 +4074,17 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3897,69 +4095,51 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
+    </row>
+    <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.88"/>
-    <col customWidth="1" min="2" max="2" width="15.25"/>
-    <col customWidth="1" min="3" max="3" width="23.13"/>
-    <col customWidth="1" min="4" max="13" width="10.0"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="14" min="4" style="0" width="7.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="15.1275510204082"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3969,12 +4149,21 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" ht="11.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3984,2747 +4173,15 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" ht="11.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" ht="11.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" ht="11.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" ht="11.25" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" ht="11.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" ht="11.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" ht="11.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" ht="11.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" ht="11.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" ht="11.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" ht="11.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" ht="11.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" ht="11.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" ht="11.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" ht="11.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" ht="11.25" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" ht="11.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" ht="11.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" ht="11.25" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" ht="11.25" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" ht="11.25" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" ht="11.25" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" ht="11.25" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" ht="11.25" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" ht="11.25" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" ht="11.25" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" ht="11.25" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" ht="11.25" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" ht="11.25" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" ht="11.25" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" ht="11.25" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" ht="11.25" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" ht="11.25" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" ht="11.25" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" ht="11.25" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" ht="11.25" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" ht="11.25" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" ht="11.25" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" ht="11.25" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" ht="11.25" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" ht="11.25" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" ht="11.25" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" ht="11.25" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" ht="11.25" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" ht="11.25" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" ht="11.25" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" ht="11.25" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" ht="11.25" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" ht="11.25" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" ht="11.25" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" ht="11.25" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" ht="11.25" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" ht="11.25" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" ht="11.25" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" ht="11.25" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" ht="11.25" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" ht="11.25" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" ht="11.25" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" ht="11.25" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" ht="11.25" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" ht="11.25" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" ht="11.25" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" ht="11.25" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" ht="11.25" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" ht="11.25" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" ht="11.25" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" ht="11.25" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" ht="11.25" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" ht="11.25" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" ht="11.25" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" ht="11.25" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" ht="11.25" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" ht="11.25" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" ht="11.25" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" ht="11.25" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" ht="11.25" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" ht="11.25" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" ht="11.25" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" ht="11.25" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" ht="11.25" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" ht="11.25" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" ht="11.25" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" ht="11.25" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" ht="11.25" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" ht="11.25" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" ht="11.25" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" ht="11.25" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" ht="11.25" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" ht="11.25" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" ht="11.25" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" ht="11.25" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" ht="11.25" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="97" ht="11.25" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" ht="11.25" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" ht="11.25" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" ht="11.25" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" ht="11.25" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" ht="11.25" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" ht="11.25" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" ht="11.25" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" ht="11.25" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" ht="11.25" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" ht="11.25" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" ht="11.25" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" ht="11.25" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" ht="11.25" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" ht="11.25" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="112" ht="11.25" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" ht="11.25" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" ht="11.25" customHeight="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" ht="11.25" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" ht="11.25" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" ht="11.25" customHeight="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" ht="11.25" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" ht="11.25" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" ht="11.25" customHeight="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-    </row>
-    <row r="121" ht="11.25" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" ht="11.25" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" ht="11.25" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" ht="11.25" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" ht="11.25" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-    </row>
-    <row r="126" ht="11.25" customHeight="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-    </row>
-    <row r="127" ht="11.25" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-    </row>
-    <row r="128" ht="11.25" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-    </row>
-    <row r="129" ht="11.25" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-    </row>
-    <row r="130" ht="11.25" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-    </row>
-    <row r="131" ht="11.25" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-    </row>
-    <row r="132" ht="11.25" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-    </row>
-    <row r="133" ht="11.25" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" ht="11.25" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-    </row>
-    <row r="135" ht="11.25" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" ht="11.25" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-    </row>
-    <row r="137" ht="11.25" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-    </row>
-    <row r="138" ht="11.25" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-    </row>
-    <row r="139" ht="11.25" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-    </row>
-    <row r="140" ht="11.25" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-    </row>
-    <row r="141" ht="11.25" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-    </row>
-    <row r="142" ht="11.25" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-    </row>
-    <row r="143" ht="11.25" customHeight="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-    </row>
-    <row r="144" ht="11.25" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-    </row>
-    <row r="145" ht="11.25" customHeight="1">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-    </row>
-    <row r="146" ht="11.25" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-    </row>
-    <row r="147" ht="11.25" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-    </row>
-    <row r="148" ht="11.25" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-    </row>
-    <row r="149" ht="11.25" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-    </row>
-    <row r="150" ht="11.25" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-    </row>
-    <row r="151" ht="11.25" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-    </row>
-    <row r="152" ht="11.25" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-    </row>
-    <row r="153" ht="11.25" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-    </row>
-    <row r="154" ht="11.25" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-    </row>
-    <row r="155" ht="11.25" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-    </row>
-    <row r="156" ht="11.25" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-    </row>
-    <row r="157" ht="11.25" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-    </row>
-    <row r="158" ht="11.25" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-    </row>
-    <row r="159" ht="11.25" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-    </row>
-    <row r="160" ht="11.25" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-    </row>
-    <row r="161" ht="11.25" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-    </row>
-    <row r="162" ht="11.25" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-    </row>
-    <row r="163" ht="11.25" customHeight="1">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-    </row>
-    <row r="164" ht="11.25" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-    </row>
-    <row r="165" ht="11.25" customHeight="1">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-    </row>
-    <row r="166" ht="11.25" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-    </row>
-    <row r="167" ht="11.25" customHeight="1">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-    </row>
-    <row r="168" ht="11.25" customHeight="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-    </row>
-    <row r="169" ht="11.25" customHeight="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-    </row>
-    <row r="170" ht="11.25" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-    </row>
-    <row r="171" ht="11.25" customHeight="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-    </row>
-    <row r="172" ht="11.25" customHeight="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-    </row>
-    <row r="173" ht="11.25" customHeight="1">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-    </row>
-    <row r="174" ht="11.25" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" ht="11.25" customHeight="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-    </row>
-    <row r="176" ht="11.25" customHeight="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-    </row>
-    <row r="177" ht="11.25" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-    </row>
-    <row r="178" ht="11.25" customHeight="1">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-    </row>
-    <row r="179" ht="13.5" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
+      <c r="N2" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
+++ b/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
   <si>
     <t>type</t>
   </si>
@@ -28,6 +30,12 @@
     <t>label</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
     <t>hint</t>
   </si>
   <si>
@@ -43,6 +51,9 @@
     <t>appearance</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -55,27 +66,75 @@
     <t>constraint_message</t>
   </si>
   <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
   <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
     <t>today</t>
   </si>
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
     <t>metadata</t>
   </si>
   <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>loam</t>
+  </si>
+  <si>
+    <t>Loam</t>
+  </si>
+  <si>
+    <t>loamy_sand</t>
+  </si>
+  <si>
+    <t>Loamy Sand</t>
+  </si>
+  <si>
+    <t>sandy_loam</t>
+  </si>
+  <si>
+    <t>Sandy Loam</t>
+  </si>
+  <si>
+    <t>silt_loam</t>
+  </si>
+  <si>
+    <t>Silt Loam</t>
+  </si>
+  <si>
+    <t>sandy_clay_loam</t>
+  </si>
+  <si>
     <t>select one from country</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -85,6 +144,54 @@
     <t>text</t>
   </si>
   <si>
+    <t>Sandy Clay Loam</t>
+  </si>
+  <si>
+    <t>clay_loam</t>
+  </si>
+  <si>
+    <t>Clay Loam</t>
+  </si>
+  <si>
+    <t>silty_clay_loam</t>
+  </si>
+  <si>
+    <t>Silty Clay Loam</t>
+  </si>
+  <si>
+    <t>sandy_clay</t>
+  </si>
+  <si>
+    <t>Sandy Clay</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>silty_clay</t>
+  </si>
+  <si>
+    <t>Silty Clay</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>soils_eplot_sample_02_jul_2015_v1</t>
+  </si>
+  <si>
+    <t>VS E-plot soils survey – 02 July 2015 v1</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>landscape_no</t>
   </si>
   <si>
@@ -410,205 +517,50 @@
   </si>
   <si>
     <t>Composite sample -- Subsoil (20-50)</t>
-  </si>
-  <si>
-    <t>composite_subsoil_texture</t>
-  </si>
-  <si>
-    <t>list name</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>loam</t>
-  </si>
-  <si>
-    <t>Loam</t>
-  </si>
-  <si>
-    <t>loamy_sand</t>
-  </si>
-  <si>
-    <t>Loamy Sand</t>
-  </si>
-  <si>
-    <t>sandy_loam</t>
-  </si>
-  <si>
-    <t>Sandy Loam</t>
-  </si>
-  <si>
-    <t>silt_loam</t>
-  </si>
-  <si>
-    <t>Silt Loam</t>
-  </si>
-  <si>
-    <t>sandy_clay_loam</t>
-  </si>
-  <si>
-    <t>Sandy Clay Loam</t>
-  </si>
-  <si>
-    <t>clay_loam</t>
-  </si>
-  <si>
-    <t>Clay Loam</t>
-  </si>
-  <si>
-    <t>silty_clay_loam</t>
-  </si>
-  <si>
-    <t>Silty Clay Loam</t>
-  </si>
-  <si>
-    <t>sandy_clay</t>
-  </si>
-  <si>
-    <t>Sandy Clay</t>
-  </si>
-  <si>
-    <t>clay</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>silty_clay</t>
-  </si>
-  <si>
-    <t>Silty Clay</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>soils_eplot_sample_02_jul_2015_v1</t>
-  </si>
-  <si>
-    <t>VS E-plot soils survey – 02 July 2015 v1</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="9">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="8.0"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.0"/>
+      <color rgb="FF333333"/>
+      <name val="Trebuchet MS"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="8.0"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="8.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -616,24 +568,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3C3C3C"/>
       </left>
@@ -646,9 +597,8 @@
       <bottom style="thin">
         <color rgb="FF3C3C3C"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -661,232 +611,3277 @@
       <bottom style="medium">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF3C3C3C"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:V94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="27.63"/>
+    <col customWidth="1" min="3" max="3" width="13.5"/>
+    <col customWidth="1" min="4" max="14" width="7.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" ht="15.0" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" ht="15.0" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
+    <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col customWidth="1" min="4" max="13" width="10.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="11.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" ht="11.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" ht="11.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" ht="11.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" ht="11.25" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" ht="11.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" ht="11.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" ht="11.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" ht="11.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" ht="11.25" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" ht="11.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" ht="11.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" ht="11.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" ht="11.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" ht="11.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" ht="11.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" ht="11.25" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" ht="11.25" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" ht="11.25" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" ht="11.25" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" ht="11.25" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" ht="11.25" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" ht="11.25" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" ht="11.25" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" ht="11.25" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" ht="11.25" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" ht="11.25" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" ht="11.25" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" ht="11.25" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" ht="11.25" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" ht="11.25" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" ht="11.25" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" ht="11.25" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" ht="11.25" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" ht="11.25" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" ht="11.25" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" ht="11.25" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" ht="11.25" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" ht="11.25" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" ht="11.25" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" ht="11.25" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" ht="11.25" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" ht="11.25" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" ht="11.25" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" ht="11.25" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" ht="11.25" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" ht="11.25" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" ht="11.25" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" ht="11.25" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" ht="11.25" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" ht="11.25" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" ht="11.25" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" ht="11.25" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" ht="11.25" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" ht="11.25" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" ht="11.25" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" ht="11.25" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" ht="11.25" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" ht="11.25" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" ht="11.25" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" ht="11.25" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" ht="11.25" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" ht="11.25" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" ht="11.25" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" ht="11.25" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" ht="11.25" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" ht="11.25" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" ht="11.25" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" ht="11.25" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" ht="11.25" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" ht="11.25" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" ht="11.25" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" ht="11.25" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" ht="11.25" customHeight="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" ht="11.25" customHeight="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" ht="11.25" customHeight="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" ht="11.25" customHeight="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" ht="11.25" customHeight="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" ht="11.25" customHeight="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" ht="11.25" customHeight="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" ht="11.25" customHeight="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" ht="11.25" customHeight="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" ht="11.25" customHeight="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" ht="11.25" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" ht="11.25" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" ht="11.25" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" ht="11.25" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" ht="11.25" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" ht="11.25" customHeight="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" ht="11.25" customHeight="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" ht="11.25" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" ht="11.25" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" ht="11.25" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" ht="11.25" customHeight="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" ht="11.25" customHeight="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" ht="11.25" customHeight="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" ht="11.25" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" ht="11.25" customHeight="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" ht="11.25" customHeight="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" ht="11.25" customHeight="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" ht="11.25" customHeight="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" ht="11.25" customHeight="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" ht="11.25" customHeight="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" ht="11.25" customHeight="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" ht="11.25" customHeight="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" ht="11.25" customHeight="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" ht="11.25" customHeight="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" ht="11.25" customHeight="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" ht="11.25" customHeight="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" ht="11.25" customHeight="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" ht="11.25" customHeight="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" ht="11.25" customHeight="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" ht="11.25" customHeight="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" ht="11.25" customHeight="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" ht="11.25" customHeight="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" ht="11.25" customHeight="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" ht="11.25" customHeight="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" ht="11.25" customHeight="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" ht="11.25" customHeight="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" ht="11.25" customHeight="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" ht="11.25" customHeight="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" ht="11.25" customHeight="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" ht="11.25" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" ht="11.25" customHeight="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" ht="11.25" customHeight="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" ht="11.25" customHeight="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" ht="11.25" customHeight="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" ht="11.25" customHeight="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" ht="11.25" customHeight="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" ht="11.25" customHeight="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" ht="11.25" customHeight="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" ht="11.25" customHeight="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" ht="11.25" customHeight="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" ht="11.25" customHeight="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" ht="11.25" customHeight="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" ht="11.25" customHeight="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" ht="11.25" customHeight="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" ht="11.25" customHeight="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" ht="11.25" customHeight="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" ht="11.25" customHeight="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" ht="11.25" customHeight="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" ht="11.25" customHeight="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" ht="11.25" customHeight="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" ht="11.25" customHeight="1">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+    </row>
+    <row r="148" ht="11.25" customHeight="1">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" ht="11.25" customHeight="1">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" ht="11.25" customHeight="1">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" ht="11.25" customHeight="1">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" ht="11.25" customHeight="1">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" ht="11.25" customHeight="1">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+    </row>
+    <row r="154" ht="11.25" customHeight="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+    </row>
+    <row r="155" ht="11.25" customHeight="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+    </row>
+    <row r="156" ht="11.25" customHeight="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+    </row>
+    <row r="157" ht="11.25" customHeight="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+    </row>
+    <row r="158" ht="11.25" customHeight="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" ht="11.25" customHeight="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+    </row>
+    <row r="160" ht="11.25" customHeight="1">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+    </row>
+    <row r="161" ht="11.25" customHeight="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+    </row>
+    <row r="162" ht="11.25" customHeight="1">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+    </row>
+    <row r="163" ht="11.25" customHeight="1">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+    </row>
+    <row r="164" ht="11.25" customHeight="1">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+    </row>
+    <row r="165" ht="11.25" customHeight="1">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+    </row>
+    <row r="166" ht="11.25" customHeight="1">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+    </row>
+    <row r="167" ht="11.25" customHeight="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+    </row>
+    <row r="168" ht="11.25" customHeight="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+    </row>
+    <row r="169" ht="11.25" customHeight="1">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+    </row>
+    <row r="170" ht="11.25" customHeight="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+    </row>
+    <row r="171" ht="11.25" customHeight="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" ht="11.25" customHeight="1">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+    </row>
+    <row r="173" ht="11.25" customHeight="1">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+    </row>
+    <row r="174" ht="11.25" customHeight="1">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" ht="11.25" customHeight="1">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" ht="11.25" customHeight="1">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+    </row>
+    <row r="177" ht="11.25" customHeight="1">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+    </row>
+    <row r="178" ht="11.25" customHeight="1">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+    </row>
+    <row r="179" ht="13.5" customHeight="1">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.37755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6275510204082"/>
-    <col collapsed="false" hidden="false" max="22" min="11" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="15.1275510204082"/>
+    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="46.75"/>
+    <col customWidth="1" min="4" max="4" width="18.38"/>
+    <col customWidth="1" min="5" max="5" width="27.63"/>
+    <col customWidth="1" min="6" max="6" width="15.25"/>
+    <col customWidth="1" min="7" max="7" width="19.0"/>
+    <col customWidth="1" min="8" max="8" width="10.0"/>
+    <col customWidth="1" min="9" max="9" width="7.38"/>
+    <col customWidth="1" min="10" max="10" width="21.63"/>
+    <col customWidth="1" min="11" max="22" width="8.0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -899,12 +3894,12 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="11.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -927,12 +3922,12 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="11.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -955,12 +3950,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="11.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -983,19 +3978,19 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1011,15 +4006,15 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="11.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1027,7 +4022,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1043,27 +4038,27 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6"/>
+    <row r="7" ht="11.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="13"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1076,29 +4071,29 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6"/>
+    <row r="8" ht="11.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1111,22 +4106,22 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
-        <v>34</v>
+    <row r="9" ht="11.25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1140,12 +4135,12 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="11.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1153,7 +4148,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1170,25 +4165,25 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="11.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1204,25 +4199,25 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1238,23 +4233,23 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
+    <row r="13" ht="11.25" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
+      <c r="I13" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1270,9 +4265,9 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="11.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1296,15 +4291,15 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1312,7 +4307,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1328,15 +4323,15 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1344,7 +4339,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1360,9 +4355,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="11.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1386,12 +4381,12 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1399,7 +4394,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1416,13 +4411,13 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="11.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1444,30 +4439,30 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1480,30 +4475,30 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1516,15 +4511,15 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1532,7 +4527,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1548,25 +4543,25 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1582,25 +4577,25 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1616,9 +4611,9 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="11.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1642,7 +4637,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1666,22 +4661,22 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1698,13 +4693,13 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="11.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1726,30 +4721,30 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1762,30 +4757,30 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1798,15 +4793,15 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1814,7 +4809,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1830,25 +4825,25 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1864,25 +4859,25 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1898,9 +4893,9 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="11.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1924,7 +4919,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="11.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1948,22 +4943,22 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1980,13 +4975,13 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="11.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2008,30 +5003,30 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2044,30 +5039,30 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2080,15 +5075,15 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2096,7 +5091,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2112,25 +5107,25 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2146,25 +5141,25 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2180,15 +5175,15 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2196,7 +5191,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2212,9 +5207,9 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="11.25" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2238,7 +5233,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="11.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2262,22 +5257,22 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2294,13 +5289,13 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="11.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2322,30 +5317,30 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="8" t="s">
-        <v>99</v>
+      <c r="L48" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2358,30 +5353,30 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2394,15 +5389,15 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2410,7 +5405,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2426,25 +5421,25 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2460,25 +5455,25 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2494,15 +5489,15 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2510,7 +5505,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2526,9 +5521,9 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="11.25" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2552,7 +5547,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="11.25" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2576,12 +5571,12 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2589,7 +5584,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2606,13 +5601,13 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="11.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2634,30 +5629,30 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -2670,9 +5665,9 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="11.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2696,7 +5691,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="11.25" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2720,22 +5715,22 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2752,13 +5747,13 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="11.25" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2780,30 +5775,30 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -2816,9 +5811,9 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="11.25" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2842,7 +5837,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="11.25" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2866,12 +5861,12 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2879,7 +5874,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2896,13 +5891,13 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="11.25" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2924,30 +5919,30 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -2960,9 +5955,9 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="11.25" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2986,7 +5981,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="11.25" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3010,22 +6005,22 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3042,13 +6037,13 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="11.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3070,30 +6065,30 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -3106,9 +6101,9 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" ht="11.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3132,7 +6127,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="11.25" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3156,12 +6151,12 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3169,7 +6164,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3186,13 +6181,13 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" ht="11.25" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3214,30 +6209,30 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -3250,9 +6245,9 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="11.25" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3276,7 +6271,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" ht="11.25" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3300,22 +6295,22 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3332,13 +6327,13 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3348,7 +6343,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -3361,23 +6356,23 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3395,9 +6390,9 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="11.25" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3421,9 +6416,9 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3445,12 +6440,12 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>126</v>
+        <v>27</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3458,7 +6453,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3475,13 +6470,13 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="8" t="s">
-        <v>127</v>
+      <c r="C87" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3492,7 +6487,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3505,15 +6500,15 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="8" t="s">
         <v>128</v>
       </c>
+      <c r="B88" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="C88" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3521,7 +6516,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3537,9 +6532,9 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3563,7 +6558,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" ht="12.0" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3587,12 +6582,12 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" ht="12.0" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3600,7 +6595,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -3617,13 +6612,13 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="8" t="s">
-        <v>130</v>
+      <c r="C92" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3634,7 +6629,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -3647,15 +6642,15 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" ht="12.0" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3663,7 +6658,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -3679,9 +6674,9 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" ht="12.0" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3705,483 +6700,31 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
+    <row r="95" ht="12.0" customHeight="1">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M179"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="15.1275510204082"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="14" min="4" style="0" width="7.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="15.1275510204082"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
+++ b/soil/soil_sample/soils.13.02.2015/VS_Eplot_soils_sample_02_07.2015_v1.xls.xlsx
@@ -13,57 +13,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>list name</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>bind:relevant</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>bind:constraint</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>bind:relevant</t>
-  </si>
-  <si>
-    <t>bind:constraint</t>
-  </si>
-  <si>
-    <t>appearance</t>
+    <t>start</t>
   </si>
   <si>
     <t>Tanzania</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
+    <t>end</t>
   </si>
   <si>
     <t>GHA</t>
@@ -72,7 +81,7 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>start</t>
+    <t>today</t>
   </si>
   <si>
     <t>UGA</t>
@@ -81,36 +90,120 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>end</t>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>soils_eplot_sample_02_jul_2015_v1</t>
+  </si>
+  <si>
+    <t>select one from country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>VS E-plot soils survey – 02 July 2015 v1</t>
+  </si>
+  <si>
+    <t>landscape_no</t>
+  </si>
+  <si>
+    <t>Landscape No</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>3 characters e.g L09. Enter 000 if N/A</t>
+  </si>
+  <si>
+    <t>string-length(.)=3</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>sand</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>metadata</t>
+    <t>eplot_no</t>
+  </si>
+  <si>
+    <t>Eplot No</t>
+  </si>
+  <si>
+    <t>Sequential number from 000 - 999</t>
+  </si>
+  <si>
+    <t>regex(., '^\d\d\d$')</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>eplot_code</t>
+  </si>
+  <si>
+    <t>concat(${country}, '-', ${landscape_no}, '-', ${eplot_no})</t>
+  </si>
+  <si>
+    <t>name_group</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>Sand</t>
   </si>
   <si>
+    <t>sampler_first_name</t>
+  </si>
+  <si>
     <t>loam</t>
   </si>
   <si>
+    <t>First Name of person sampling and weighing samples</t>
+  </si>
+  <si>
     <t>Loam</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
     <t>loamy_sand</t>
   </si>
   <si>
@@ -132,16 +225,10 @@
     <t>sandy_clay_loam</t>
   </si>
   <si>
-    <t>select one from country</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>sampler_last_name</t>
+  </si>
+  <si>
+    <t>Last Name of person sampling and weighing samples</t>
   </si>
   <si>
     <t>Sandy Clay Loam</t>
@@ -165,6 +252,9 @@
     <t>Sandy Clay</t>
   </si>
   <si>
+    <t>Last Name</t>
+  </si>
+  <si>
     <t>clay</t>
   </si>
   <si>
@@ -175,84 +265,6 @@
   </si>
   <si>
     <t>Silty Clay</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>soils_eplot_sample_02_jul_2015_v1</t>
-  </si>
-  <si>
-    <t>VS E-plot soils survey – 02 July 2015 v1</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>landscape_no</t>
-  </si>
-  <si>
-    <t>Landscape No</t>
-  </si>
-  <si>
-    <t>3 characters e.g L09. Enter 000 if N/A</t>
-  </si>
-  <si>
-    <t>string-length(.)=3</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>eplot_no</t>
-  </si>
-  <si>
-    <t>Eplot No</t>
-  </si>
-  <si>
-    <t>Sequential number from 000 - 999</t>
-  </si>
-  <si>
-    <t>regex(., '^\d\d\d$')</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>eplot_code</t>
-  </si>
-  <si>
-    <t>concat(${country}, '-', ${landscape_no}, '-', ${eplot_no})</t>
-  </si>
-  <si>
-    <t>name_group</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>sampler_first_name</t>
-  </si>
-  <si>
-    <t>First Name of person sampling and weighing samples</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>sampler_last_name</t>
-  </si>
-  <si>
-    <t>Last Name of person sampling and weighing samples</t>
-  </si>
-  <si>
-    <t>Last Name</t>
   </si>
   <si>
     <t>date</t>
@@ -523,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -535,13 +547,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color rgb="FF333333"/>
       <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -554,6 +566,9 @@
     </font>
     <font>
       <sz val="8.0"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -585,6 +600,20 @@
       <bottom/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3C3C3C"/>
       </left>
@@ -598,49 +627,31 @@
         <color rgb="FF3C3C3C"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -648,11 +659,17 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -691,16 +708,16 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -714,16 +731,16 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4">
         <v>1.0</v>
       </c>
       <c r="E2" s="2"/>
@@ -1045,7 +1062,7 @@
   <sheetData>
     <row r="1" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1081,13 +1098,13 @@
     </row>
     <row r="3" ht="11.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1102,13 +1119,13 @@
     </row>
     <row r="4" ht="11.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1123,13 +1140,13 @@
     </row>
     <row r="5" ht="11.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1143,9 +1160,15 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" ht="11.25" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1158,9 +1181,15 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" ht="11.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1173,15 +1202,9 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" ht="11.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1194,15 +1217,9 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" ht="11.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1215,15 +1232,9 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" ht="11.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1237,13 +1248,13 @@
     </row>
     <row r="11" ht="11.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1258,13 +1269,13 @@
     </row>
     <row r="12" ht="11.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1279,13 +1290,13 @@
     </row>
     <row r="13" ht="11.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1300,13 +1311,13 @@
     </row>
     <row r="14" ht="11.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1321,13 +1332,13 @@
     </row>
     <row r="15" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1342,13 +1353,13 @@
     </row>
     <row r="16" ht="11.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1363,13 +1374,13 @@
     </row>
     <row r="17" ht="11.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1384,13 +1395,13 @@
     </row>
     <row r="18" ht="11.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1404,9 +1415,15 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" ht="11.25" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1419,9 +1436,15 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" ht="11.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1434,9 +1457,15 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" ht="11.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3803,7 +3832,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" ht="11.25" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3817,6 +3846,51 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
+    </row>
+    <row r="180" ht="11.25" customHeight="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+    </row>
+    <row r="181" ht="11.25" customHeight="1">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+    </row>
+    <row r="182" ht="13.5" customHeight="1">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3848,7 +3922,7 @@
   <sheetData>
     <row r="1" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -3857,31 +3931,31 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -3896,10 +3970,10 @@
     </row>
     <row r="2" ht="11.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3924,10 +3998,10 @@
     </row>
     <row r="3" ht="11.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3952,10 +4026,10 @@
     </row>
     <row r="4" ht="11.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3980,10 +4054,10 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4008,13 +4082,13 @@
     </row>
     <row r="6" ht="11.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4022,7 +4096,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -4039,26 +4113,26 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" ht="11.25" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="13"/>
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="J7" s="12"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -4072,28 +4146,28 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" ht="11.25" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>68</v>
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="J8" s="12"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4107,21 +4181,21 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" ht="11.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10" t="s">
-        <v>71</v>
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4137,10 +4211,10 @@
     </row>
     <row r="10" ht="11.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4148,7 +4222,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4167,23 +4241,23 @@
     </row>
     <row r="11" ht="11.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4201,13 +4275,13 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>79</v>
@@ -4217,7 +4291,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4234,22 +4308,22 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" ht="11.25" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>82</v>
+      <c r="A13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="15" t="s">
-        <v>41</v>
+      <c r="I13" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4267,7 +4341,7 @@
     </row>
     <row r="14" ht="11.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4293,13 +4367,13 @@
     </row>
     <row r="15" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4307,7 +4381,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4325,13 +4399,13 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4339,7 +4413,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4357,7 +4431,7 @@
     </row>
     <row r="17" ht="11.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4383,10 +4457,10 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4394,7 +4468,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4413,11 +4487,11 @@
     </row>
     <row r="19" ht="11.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4441,28 +4515,28 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4477,28 +4551,28 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4513,13 +4587,13 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4527,7 +4601,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4545,23 +4619,23 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4579,23 +4653,23 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -4613,7 +4687,7 @@
     </row>
     <row r="25" ht="11.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4663,20 +4737,20 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4695,11 +4769,11 @@
     </row>
     <row r="28" ht="11.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4723,28 +4797,28 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4759,28 +4833,28 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4795,13 +4869,13 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4809,7 +4883,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4827,23 +4901,23 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4861,23 +4935,23 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4895,7 +4969,7 @@
     </row>
     <row r="34" ht="11.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4945,20 +5019,20 @@
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -4977,11 +5051,11 @@
     </row>
     <row r="37" ht="11.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5005,28 +5079,28 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5041,28 +5115,28 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5077,13 +5151,13 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5091,7 +5165,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -5109,23 +5183,23 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5143,23 +5217,23 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5177,13 +5251,13 @@
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5191,7 +5265,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5209,7 +5283,7 @@
     </row>
     <row r="44" ht="11.25" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5259,20 +5333,20 @@
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -5291,11 +5365,11 @@
     </row>
     <row r="47" ht="11.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5319,28 +5393,28 @@
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="15" t="s">
-        <v>136</v>
+      <c r="L48" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5355,28 +5429,28 @@
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5391,13 +5465,13 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5405,7 +5479,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -5423,23 +5497,23 @@
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -5457,23 +5531,23 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -5491,13 +5565,13 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5505,7 +5579,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -5523,7 +5597,7 @@
     </row>
     <row r="54" ht="11.25" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5573,10 +5647,10 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5584,7 +5658,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -5603,11 +5677,11 @@
     </row>
     <row r="57" ht="11.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5631,28 +5705,28 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -5667,7 +5741,7 @@
     </row>
     <row r="59" ht="11.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5717,20 +5791,20 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -5749,11 +5823,11 @@
     </row>
     <row r="62" ht="11.25" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5777,28 +5851,28 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -5813,7 +5887,7 @@
     </row>
     <row r="64" ht="11.25" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5863,10 +5937,10 @@
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -5874,7 +5948,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -5893,11 +5967,11 @@
     </row>
     <row r="67" ht="11.25" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5921,28 +5995,28 @@
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -5957,7 +6031,7 @@
     </row>
     <row r="69" ht="11.25" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6007,20 +6081,20 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -6039,11 +6113,11 @@
     </row>
     <row r="72" ht="11.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6067,28 +6141,28 @@
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -6103,7 +6177,7 @@
     </row>
     <row r="74" ht="11.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6153,10 +6227,10 @@
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6164,7 +6238,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -6183,11 +6257,11 @@
     </row>
     <row r="77" ht="11.25" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6211,28 +6285,28 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -6247,7 +6321,7 @@
     </row>
     <row r="79" ht="11.25" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6297,20 +6371,20 @@
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -6329,11 +6403,11 @@
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6343,7 +6417,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -6358,21 +6432,21 @@
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6392,7 +6466,7 @@
     </row>
     <row r="84" ht="11.25" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6418,7 +6492,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6442,10 +6516,10 @@
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>163</v>
+        <v>25</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6453,7 +6527,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -6472,11 +6546,11 @@
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="15" t="s">
-        <v>164</v>
+      <c r="C87" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6487,7 +6561,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -6502,13 +6576,13 @@
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6516,7 +6590,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6534,7 +6608,7 @@
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6584,10 +6658,10 @@
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>166</v>
+        <v>25</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6595,7 +6669,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -6614,11 +6688,11 @@
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="15" t="s">
-        <v>167</v>
+      <c r="C92" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6629,7 +6703,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -6644,13 +6718,13 @@
     </row>
     <row r="93" ht="12.0" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6658,7 +6732,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6676,7 +6750,7 @@
     </row>
     <row r="94" ht="12.0" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
